--- a/medicine/Enfance/Bruce_Balan/Bruce_Balan.xlsx
+++ b/medicine/Enfance/Bruce_Balan/Bruce_Balan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bruce Balan, né le 2 octobre 1959 à Long Beach, est un écrivain américain auteur de plusieurs romans pour la jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir effectué ses études primaires en Californie, il rejoint l'Université de Californie à Santa Cruz en 1977[1] pour suivre des études de physique et d'histoire grecque puis la San Francisco State University, d'où il sort en 1981 avec un BA de producteur pour radio et télévision.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir effectué ses études primaires en Californie, il rejoint l'Université de Californie à Santa Cruz en 1977 pour suivre des études de physique et d'histoire grecque puis la San Francisco State University, d'où il sort en 1981 avec un BA de producteur pour radio et télévision.
 Il publie son premier roman, The Cherry Migration, en 1988 alors qu'il vit à Londres. Il retourne ensuite aux États-Unis où il continue à écrire tout en poursuivant une carrière de développeur de logiciels. Il fonde sa propre compagnie qu'il quitte en 1993 pour se consacrer à l´écriture
-Il fait partie de la direction de la Society of Children’s Book Writers and Illustrators (SCBWI) pour laquelle il a servi pendant cinq ans comme conseiller technique[2].
+Il fait partie de la direction de la Society of Children’s Book Writers and Illustrators (SCBWI) pour laquelle il a servi pendant cinq ans comme conseiller technique.
 </t>
         </is>
       </c>
@@ -546,23 +560,62 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Cyber.kdz
-Cette série est restée inachevée à cause de soucis d'éditeur[3].
+          <t>Série Cyber.kdz</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette série est restée inachevée à cause de soucis d'éditeur.
 Pirates poursuites, Pocket Jeunesse, 1999 ((en) In Search of Scum, Avon Books, 1997), trad. Évelyne Châtelain  (ISBN 2-266-08444-5)
 (en) A Picture's Worth, Avon Books, 1997
 Alerte à la NASA, Pocket Jeunesse, 1999 ((en) The Great NASA Flu, Avon Books, 1997), trad. Nathalie Costes  (ISBN 2-266-08443-7)
 (en) Blackout in the Amazon, Avon Books, 1997
 (en) In Pursuit of Picasso, Avon Books, 1998
-(en) When the Chips Are Down, Avon Books, 1998
-Romans indépendants
-(en) The Cherry Migration, Green Tiger Press, 1988
+(en) When the Chips Are Down, Avon Books, 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bruce_Balan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruce_Balan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Cherry Migration, Green Tiger Press, 1988
 (en) Jeremy Quacks, Picture Book Studios, 1989
 (en) What I saw at Sea, All Books for Children, 1991
 L'Élan en chemise de nuit, L'École des loisirs, 1991 ((en) The Moose in the Dress, All Books for Children, 1991), trad. Denise Teasdale  (ISBN 2-211-03613-9)
 (en) Pie in the Sky, Viking, 1993
-(en) Buoy - Home at Sea, Viking, 1998[4]
+(en) Buoy - Home at Sea, Viking, 1998
 (en) Lines in the Sand, Mary Hoffman and Rhiannon Lassiter, 2003
-(en) Cows Going Past, Lauri Hornik, 2005[5]</t>
+(en) Cows Going Past, Lauri Hornik, 2005</t>
         </is>
       </c>
     </row>
